--- a/data/equivalencias.xlsx
+++ b/data/equivalencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Mi unidad\Proyectos\Nutricion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90100B9B-E95D-4D18-ABBB-B69B901E5656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156A5044-34F2-4A3B-9C26-789CE9708C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="118">
   <si>
     <t>Grupo Ingrediente</t>
   </si>
@@ -200,12 +200,6 @@
     <t>Guisantes</t>
   </si>
   <si>
-    <t>Cereales o granos</t>
-  </si>
-  <si>
-    <t>h4</t>
-  </si>
-  <si>
     <t>Maíz</t>
   </si>
   <si>
@@ -251,9 +245,6 @@
     <t>Arroz integral</t>
   </si>
   <si>
-    <t>h9</t>
-  </si>
-  <si>
     <t>Pasta sin gluten</t>
   </si>
   <si>
@@ -375,6 +366,27 @@
   </si>
   <si>
     <t>Leche de soja</t>
+  </si>
+  <si>
+    <t>Quinoa cocida</t>
+  </si>
+  <si>
+    <t>Pasta sin gluten  cocida</t>
+  </si>
+  <si>
+    <t>Soja texturizada  cocida</t>
+  </si>
+  <si>
+    <t>Amaranto cocido</t>
+  </si>
+  <si>
+    <t>Otro cereal cocido</t>
+  </si>
+  <si>
+    <t>Arroz integral cocido</t>
+  </si>
+  <si>
+    <t>Guisante texturizado cocido</t>
   </si>
 </sst>
 </file>
@@ -400,7 +412,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +429,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFF6F8F9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -612,7 +636,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -662,11 +686,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -694,9 +770,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="equivalencias-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -711,12 +787,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="equivalencias" displayName="equivalencias" ref="A1:D77">
-  <autoFilter ref="A1:D77" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="equivalencias" displayName="equivalencias" ref="A1:D82">
+  <autoFilter ref="A1:D82" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
     <filterColumn colId="3">
       <filters>
-        <filter val="hp2"/>
-        <filter val="p2"/>
+        <filter val="h4"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -931,17 +1006,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -961,891 +1036,891 @@
     </row>
     <row r="2" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="C2" s="5">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="8">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="8">
+        <v>50</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="5">
+        <v>50</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="8">
+        <v>50</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="8">
+        <v>45</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>100</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C10" s="8">
         <v>50</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="11" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C11" s="5">
         <v>50</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="12" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C12" s="8">
         <v>50</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="13" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C13" s="5">
         <v>100</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="14" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C14" s="8">
         <v>100</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="15" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C15" s="5">
         <v>60</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="16" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C16" s="8">
         <v>100</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="17" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C17" s="5">
         <v>100</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="18" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C18" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="19" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C19" s="5">
         <v>70</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="20" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C20" s="8">
         <v>30</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="21" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C21" s="5">
         <v>30</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+    <row r="22" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C22" s="8">
         <v>15</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="23" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C23" s="5">
         <v>15</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="24" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C24" s="8">
         <v>15</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="25" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C25" s="5">
         <v>15</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="26" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C26" s="8">
         <v>15</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="27" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C27" s="5">
         <v>40</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+    <row r="28" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C28" s="8">
         <v>15</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="29" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C29" s="5">
         <v>15</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="30" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C30" s="8">
         <v>15</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="31" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C31" s="5">
         <v>15</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="32" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C32" s="8">
         <v>15</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="33" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C33" s="5">
         <v>15</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="8" t="s">
+    <row r="34" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C34" s="8">
         <v>40</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="5" t="s">
+    <row r="35" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C35" s="5">
         <v>40</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="8" t="s">
+    <row r="36" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C36" s="8">
         <v>40</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="5">
-        <v>45</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="8">
-        <v>45</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="5" t="s">
+    <row r="37" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C37" s="5">
         <v>55</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="8" t="s">
+    <row r="38" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C38" s="8">
         <v>120</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="5" t="s">
+    <row r="39" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C39" s="5">
         <v>100.8</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="8" t="s">
+    <row r="40" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C40" s="8">
         <v>52.8</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D40" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="5" t="s">
+    <row r="41" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C41" s="5">
         <v>120</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="8" t="s">
+    <row r="42" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C42" s="8">
         <v>120</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="5" t="s">
+    <row r="43" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="5">
-        <v>30</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="C43" s="5">
+        <v>133</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
+    <row r="44" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="8">
-        <v>133</v>
-      </c>
-      <c r="D39" s="9" t="s">
+      <c r="C44" s="8">
+        <v>33.25</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="C45" s="5">
+        <v>33.25</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="5">
-        <v>33.25</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="8" t="s">
+      <c r="C46" s="8">
+        <v>55</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="8">
-        <v>33.25</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="5" t="s">
+    </row>
+    <row r="47" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="5">
-        <v>55</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C47" s="5">
+        <v>10</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="8" t="s">
+    <row r="48" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C48" s="8">
         <v>10</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D48" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="5">
+      <c r="C49" s="5">
         <v>10</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="8">
-        <v>10</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="5">
-        <v>50</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="8">
-        <v>50</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="5">
-        <v>50</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" s="8">
-        <v>50</v>
-      </c>
       <c r="D49" s="9" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>71</v>
+      <c r="B50" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C50" s="8">
         <v>50</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>73</v>
+      <c r="B51" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C51" s="5">
         <v>50</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C52" s="8">
         <v>60</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="C53" s="5">
         <v>150</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C54" s="8">
         <v>200</v>
       </c>
       <c r="D54" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="10" t="s">
+      <c r="C55" s="8">
+        <v>75</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="5">
-        <v>75</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="C56" s="5">
+        <v>200</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="8">
-        <v>200</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>113</v>
+        <v>78</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="C57" s="8">
         <v>200</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>111</v>
+        <v>78</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="C58" s="5">
         <v>100</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D58" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C59" s="8">
         <v>150</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C60" s="5">
         <v>150</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D60" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C61" s="8">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="D61" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B62" s="5" t="s">
+      <c r="C62" s="5">
+        <v>100</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C62" s="5">
-        <v>45</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B63" s="8" t="s">
+      <c r="C63" s="8">
+        <v>10</v>
+      </c>
+      <c r="D63" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="8">
-        <v>130</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="C64" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C65" s="8">
@@ -1855,172 +1930,242 @@
         <v>93</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>112</v>
+        <v>4</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="C66" s="5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>95</v>
       </c>
       <c r="C67" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>97</v>
+        <v>38</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="C68" s="5">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>98</v>
+        <v>78</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C69" s="8">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="5">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C71" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C72" s="5">
+        <v>100</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>101</v>
-      </c>
-      <c r="C72" s="5">
-        <v>15</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>103</v>
       </c>
       <c r="C73" s="8">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="5">
+        <v>10</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C74" s="5">
+    </row>
+    <row r="75" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" s="15">
+        <v>200</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76">
+        <v>112.5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77">
+        <v>112.5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78">
+        <v>150</v>
+      </c>
+      <c r="D78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79">
+        <v>150</v>
+      </c>
+      <c r="D79" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80">
         <v>100</v>
       </c>
-      <c r="D74" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="8">
-        <v>100</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" s="5">
-        <v>10</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="15">
-        <v>200</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>110</v>
+      <c r="D80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81">
+        <v>135</v>
+      </c>
+      <c r="D81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82">
+        <v>150</v>
+      </c>
+      <c r="D82" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/equivalencias.xlsx
+++ b/data/equivalencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Mi unidad\Proyectos\Nutricion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156A5044-34F2-4A3B-9C26-789CE9708C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F8F772-8123-4E1C-B0CB-6D67E9948DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="119">
   <si>
     <t>Grupo Ingrediente</t>
   </si>
@@ -387,6 +387,9 @@
   </si>
   <si>
     <t>Guisante texturizado cocido</t>
+  </si>
+  <si>
+    <t>Fideos de arroz cocidos</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,18 +432,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFF6F8F9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -636,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -671,9 +662,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -686,63 +674,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -770,9 +738,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="equivalencias-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -787,14 +755,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="equivalencias" displayName="equivalencias" ref="A1:D82">
-  <autoFilter ref="A1:D82" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="h4"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="equivalencias" displayName="equivalencias" ref="A1:D83">
+  <autoFilter ref="A1:D83" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D83">
+    <sortCondition ref="D1:D83"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Grupo Ingrediente"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ingrediente"/>
@@ -1006,11 +971,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1034,1138 +999,1152 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>43</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="5">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>45</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>68</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="8">
         <v>50</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>69</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="5">
         <v>50</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>84</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="5">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>86</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="8">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5">
         <v>100</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C11" s="5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C12" s="8">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C14" s="8">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C16" s="8">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5">
         <v>15</v>
       </c>
-      <c r="C17" s="5">
-        <v>100</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C18" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C19" s="5">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C20" s="8">
+        <v>40</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C21" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C22" s="8">
         <v>15</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C23" s="5">
         <v>15</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C24" s="8">
         <v>15</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C25" s="5">
         <v>15</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C26" s="8">
         <v>15</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5">
         <v>40</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="8">
+        <v>40</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="5">
+        <v>40</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="8">
+        <v>45</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="5">
+        <v>45</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="8">
+        <v>50</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="5">
+        <v>50</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="8">
+        <v>50</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="19">
+        <v>112.5</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="21">
+        <v>112.5</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="19">
+        <v>150</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="21">
+        <v>150</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="19">
+        <v>100</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="8">
+        <v>55</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="8">
+        <v>125</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="5">
+        <v>120</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="8">
+        <v>100.8</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="5">
+        <v>52.8</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="8">
+        <v>120</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="5">
+        <v>120</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="8">
+        <v>133</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="5">
+        <v>33.25</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="8">
+        <v>33.25</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="5">
+        <v>55</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="8">
+        <v>10</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="5">
+        <v>10</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="8">
+        <v>10</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="5">
+        <v>50</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="8">
+        <v>50</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="8">
+        <v>60</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="5">
+        <v>150</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="8">
+        <v>200</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="5">
+        <v>75</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="8">
+        <v>200</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="5">
+        <v>200</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="8">
+        <v>100</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="5">
+        <v>45</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="8">
+        <v>45</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="5">
+        <v>150</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="8">
+        <v>150</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="5">
+        <v>130</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C68" s="8">
+        <v>100</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="5">
+        <v>50</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="21">
+        <v>135</v>
+      </c>
+      <c r="D70" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="19">
+        <v>150</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="8">
+        <v>10</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="5">
+        <v>10</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C74" s="8">
+        <v>200</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="8">
+      <c r="B75" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="5">
+        <v>25</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="14">
+        <v>50</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="17">
+        <v>100</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="17">
         <v>15</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="5">
-        <v>15</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="8">
-        <v>15</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="5">
-        <v>15</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="8">
-        <v>15</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="5">
-        <v>15</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="8">
-        <v>40</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="5">
-        <v>40</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="8">
-        <v>40</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="5">
-        <v>55</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="8">
-        <v>120</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="5">
-        <v>100.8</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="8">
-        <v>52.8</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="5">
-        <v>120</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="8">
-        <v>120</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="5">
-        <v>133</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="8">
-        <v>33.25</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="5">
-        <v>33.25</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="8">
-        <v>55</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="5">
+      <c r="D78" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="17">
+        <v>300</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="17">
+        <v>100</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="17">
+        <v>100</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="17">
         <v>10</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="8">
-        <v>10</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="5">
-        <v>10</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="8">
-        <v>50</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="5">
-        <v>50</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="8">
-        <v>60</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="5">
-        <v>150</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="8">
+      <c r="D82" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C83" s="17">
         <v>200</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="8">
-        <v>75</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="5">
-        <v>200</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="8">
-        <v>200</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="5">
-        <v>100</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="8">
-        <v>150</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="5">
-        <v>150</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C61" s="8">
-        <v>130</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C62" s="5">
-        <v>100</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="8">
-        <v>10</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="5">
-        <v>50</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C65" s="8">
-        <v>10</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="5">
-        <v>200</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C67" s="8">
-        <v>25</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C68" s="5">
-        <v>50</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="8">
-        <v>100</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" s="5">
-        <v>15</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="8">
-        <v>300</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C72" s="5">
-        <v>100</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C73" s="8">
-        <v>100</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" s="5">
-        <v>10</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="13.2" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" s="15">
-        <v>200</v>
-      </c>
-      <c r="D75" s="16" t="s">
+      <c r="D83" s="17" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76">
-        <v>112.5</v>
-      </c>
-      <c r="D76" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77" t="s">
-        <v>114</v>
-      </c>
-      <c r="C77">
-        <v>112.5</v>
-      </c>
-      <c r="D77" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>38</v>
-      </c>
-      <c r="B78" t="s">
-        <v>115</v>
-      </c>
-      <c r="C78">
-        <v>150</v>
-      </c>
-      <c r="D78" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>38</v>
-      </c>
-      <c r="B79" t="s">
-        <v>116</v>
-      </c>
-      <c r="C79">
-        <v>150</v>
-      </c>
-      <c r="D79" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>38</v>
-      </c>
-      <c r="B80" t="s">
-        <v>112</v>
-      </c>
-      <c r="C80">
-        <v>100</v>
-      </c>
-      <c r="D80" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81">
-        <v>135</v>
-      </c>
-      <c r="D81" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>117</v>
-      </c>
-      <c r="C82">
-        <v>150</v>
-      </c>
-      <c r="D82" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/equivalencias.xlsx
+++ b/data/equivalencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Mi unidad\Proyectos\Nutricion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F8F772-8123-4E1C-B0CB-6D67E9948DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F61FB3-F7D6-49E7-892E-3867C7BB7C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="115">
   <si>
     <t>Grupo Ingrediente</t>
   </si>
@@ -314,24 +314,6 @@
     <t>Chocolate negro</t>
   </si>
   <si>
-    <t>snack</t>
-  </si>
-  <si>
-    <t>2 Piezas de fruta a elección</t>
-  </si>
-  <si>
-    <t>Nueces, otros frutos secos o crema cacahuete</t>
-  </si>
-  <si>
-    <t>Tortitas/cereales/Crema de arroz o pan sin gluten</t>
-  </si>
-  <si>
-    <t>yogur soja</t>
-  </si>
-  <si>
-    <t>Proteína en polvo o heura</t>
-  </si>
-  <si>
     <t>Verdura</t>
   </si>
   <si>
@@ -390,6 +372,12 @@
   </si>
   <si>
     <t>Fideos de arroz cocidos</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>Cereales</t>
   </si>
 </sst>
 </file>
@@ -415,7 +403,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,12 +414,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F8F9"/>
         <bgColor rgb="FFF6F8F9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -580,21 +562,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFF6F8F9"/>
       </left>
       <right style="thin">
@@ -623,11 +590,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -662,48 +638,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -755,11 +717,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="equivalencias" displayName="equivalencias" ref="A1:D83">
-  <autoFilter ref="A1:D83" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D83">
-    <sortCondition ref="D1:D83"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="equivalencias" displayName="equivalencias" ref="A1:D81">
+  <autoFilter ref="A1:D81" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Grupo Ingrediente"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ingrediente"/>
@@ -971,11 +930,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1354,7 @@
       <c r="A30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C30" s="8">
@@ -1409,7 +1368,7 @@
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="5">
@@ -1423,7 +1382,7 @@
       <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C32" s="8">
@@ -1437,7 +1396,7 @@
       <c r="A33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="22" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="5">
@@ -1451,7 +1410,7 @@
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="21" t="s">
         <v>70</v>
       </c>
       <c r="C34" s="8">
@@ -1462,72 +1421,72 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="19">
+      <c r="A35" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="17">
         <v>112.5</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="21">
+      <c r="A36" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="18">
         <v>112.5</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="19">
+      <c r="A37" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="17">
         <v>150</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="21">
+      <c r="A38" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="18">
         <v>150</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="19">
+      <c r="A39" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="17">
         <v>100</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1550,7 +1509,7 @@
         <v>38</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C41" s="8">
         <v>125</v>
@@ -1686,282 +1645,282 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="8" t="s">
+      <c r="A51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="23">
+        <v>55</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C52" s="8">
         <v>10</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D52" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52" s="5" t="s">
+    <row r="53" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C53" s="5">
         <v>10</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D53" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53" s="8" t="s">
+    <row r="54" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C54" s="8">
         <v>10</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="5" t="s">
+    <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C55" s="5">
         <v>50</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="8">
-        <v>50</v>
-      </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="8">
+        <v>50</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B57" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C57" s="8">
         <v>60</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="58" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B58" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C58" s="5">
         <v>150</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D58" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+    <row r="59" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B59" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C59" s="8">
         <v>200</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D59" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="60" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B60" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C60" s="5">
         <v>75</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+    <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B61" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C61" s="8">
         <v>200</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D61" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="5">
+      <c r="B62" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="5">
         <v>200</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+    <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="8">
+      <c r="B63" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C63" s="8">
         <v>100</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D63" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+    <row r="64" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B64" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C64" s="5">
         <v>45</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D64" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+    <row r="65" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B65" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C65" s="8">
         <v>45</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D65" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B66" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C66" s="5">
         <v>150</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+    <row r="67" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B67" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C67" s="8">
         <v>150</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D67" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+    <row r="68" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B68" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C68" s="5">
         <v>130</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D68" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+    <row r="69" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="8">
+      <c r="C69" s="8">
         <v>100</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D69" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+    <row r="70" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="5">
-        <v>50</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" s="21">
-        <v>135</v>
-      </c>
-      <c r="D70" s="25" t="s">
+      <c r="B70" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="5">
+        <v>130</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1969,182 +1928,126 @@
       <c r="A71" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C71" s="19">
+      <c r="B71" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="18">
+        <v>135</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="17">
         <v>150</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D72" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+    <row r="73" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B73" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C73" s="8">
         <v>10</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D73" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B74" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C74" s="23">
         <v>10</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D74" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="11" t="s">
+      <c r="B75" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C75" s="15">
+        <v>300</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="5">
+        <v>100</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C77" s="15">
+        <v>100</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C78" s="15">
+        <v>10</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C79" s="12">
         <v>200</v>
       </c>
-      <c r="D74" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="5">
-        <v>25</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="14">
-        <v>50</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="17">
-        <v>100</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C78" s="17">
-        <v>15</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C79" s="17">
-        <v>300</v>
-      </c>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="13" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="17">
-        <v>100</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="17">
-        <v>100</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C82" s="17">
-        <v>10</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C83" s="17">
-        <v>200</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/equivalencias.xlsx
+++ b/data/equivalencias.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Mi unidad\Proyectos\Nutricion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F61FB3-F7D6-49E7-892E-3867C7BB7C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41826EE-F6FE-48DE-88FC-DF44529F9C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="118">
   <si>
     <t>Grupo Ingrediente</t>
   </si>
@@ -378,6 +378,15 @@
   </si>
   <si>
     <t>Cereales</t>
+  </si>
+  <si>
+    <t>Patata cocida</t>
+  </si>
+  <si>
+    <t>Boniato cocido</t>
+  </si>
+  <si>
+    <t>gnoquis cocidos</t>
   </si>
 </sst>
 </file>
@@ -659,13 +668,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,8 +726,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="equivalencias" displayName="equivalencias" ref="A1:D81">
-  <autoFilter ref="A1:D81" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="equivalencias" displayName="equivalencias" ref="A1:D84">
+  <autoFilter ref="A1:D84" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D82">
+    <sortCondition ref="D1:D84"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Grupo Ingrediente"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ingrediente"/>
@@ -930,11 +942,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1533,14 +1545,14 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="8">
-        <v>100.8</v>
+      <c r="A43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="25">
+        <v>108</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>49</v>
@@ -1550,28 +1562,28 @@
       <c r="A44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="5">
-        <v>52.8</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="B44" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="8">
+        <v>100.8</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="8">
-        <v>120</v>
+      <c r="A45" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="25">
+        <v>85.679999999999993</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1579,83 +1591,83 @@
         <v>38</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="5">
+        <v>52.8</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="25">
+        <v>118.8</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="8">
+        <v>120</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C49" s="5">
         <v>120</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="8" t="s">
+    <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C50" s="8">
         <v>133</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D50" s="9" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="5">
-        <v>33.25</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="8">
-        <v>33.25</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C50" s="5">
-        <v>55</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B51" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="23">
-        <v>55</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>60</v>
+      <c r="B51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="5">
+        <v>33.25</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1663,13 +1675,13 @@
         <v>38</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C52" s="8">
-        <v>10</v>
+        <v>33.25</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -1677,376 +1689,418 @@
         <v>38</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="5">
+        <v>55</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="15">
+        <v>55</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="8">
+        <v>10</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C56" s="5">
         <v>10</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="8">
-        <v>10</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="5">
-        <v>50</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="8">
-        <v>50</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>72</v>
+        <v>38</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C57" s="8">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>74</v>
+        <v>38</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="C58" s="5">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="8">
+        <v>50</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B60" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="8">
+        <v>60</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="5">
+        <v>150</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C62" s="8">
         <v>200</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D62" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B63" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C63" s="5">
         <v>75</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D63" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+    <row r="64" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B64" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C64" s="8">
         <v>200</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D64" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    <row r="65" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B65" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C65" s="5">
         <v>200</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D65" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+    <row r="66" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B66" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C66" s="8">
         <v>100</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D66" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+    <row r="67" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B67" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C67" s="5">
         <v>45</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+    <row r="68" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B68" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C68" s="8">
         <v>45</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D68" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+    <row r="69" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C69" s="5">
         <v>150</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
+    <row r="70" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B70" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C70" s="8">
         <v>150</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D70" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+    <row r="71" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B71" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C71" s="5">
         <v>130</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D71" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+    <row r="72" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B72" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C72" s="8">
         <v>100</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D72" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+    <row r="73" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B73" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C73" s="5">
         <v>130</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D73" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+    <row r="74" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B74" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C74" s="18">
         <v>135</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D74" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
+    <row r="75" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="17" t="s">
+      <c r="B75" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C75" s="17">
         <v>150</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D75" s="19" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+    <row r="76" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B76" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C76" s="8">
         <v>10</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D76" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B74" s="25" t="s">
+      <c r="B77" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C77" s="15">
         <v>10</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D77" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B78" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C78" s="15">
         <v>300</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D78" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+    <row r="79" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B79" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C79" s="5">
         <v>100</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D79" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+    <row r="80" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="B80" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C80" s="15">
         <v>100</v>
       </c>
-      <c r="D77" s="24" t="s">
+      <c r="D80" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+    <row r="81" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="B81" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C78" s="15">
+      <c r="C81" s="15">
         <v>10</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D81" s="23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
+    <row r="82" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="15" t="s">
+      <c r="B82" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="12">
+      <c r="C82" s="12">
         <v>200</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D82" s="13" t="s">
         <v>101</v>
       </c>
     </row>
